--- a/yd_kuolemat_kaikki_vuosi.xlsx
+++ b/yd_kuolemat_kaikki_vuosi.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pyrykantanen/Github/yd-kuolemansyyt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B36DE9-E028-CF4B-8FEC-2AA9D899F305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAB16F4-965C-3E47-A89C-B6EDD569E702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="800" windowWidth="36000" windowHeight="21340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="800" windowWidth="36000" windowHeight="21340" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="itsemurha_abs_pct" sheetId="1" r:id="rId1"/>
     <sheet name="huumekuolema_abs_pct" sheetId="2" r:id="rId2"/>
     <sheet name="vakivalta_abs_pct" sheetId="3" r:id="rId3"/>
+    <sheet name="yhteensa_abs_pct" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="38">
   <si>
     <t>ika</t>
   </si>
@@ -146,6 +147,9 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>yhteensa</t>
   </si>
 </sst>
 </file>
@@ -528,7 +532,7 @@
   <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V39" sqref="A17:V39"/>
+      <selection sqref="A1:W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3073,8 +3077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F89DC6-BD1E-624A-9198-7F694A94EA13}">
   <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W2" sqref="W2:W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4339,4 +4343,1434 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2F7FC7-96B8-A640-B5B3-9E267257E2F8}">
+  <dimension ref="A1:W16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2">
+        <f>SUM(itsemurha_abs_pct!E2,huumekuolema_abs_pct!E2,vakivalta_abs_pct!E2)</f>
+        <v>60</v>
+      </c>
+      <c r="F2">
+        <f>SUM(itsemurha_abs_pct!F2,huumekuolema_abs_pct!F2,vakivalta_abs_pct!F2)</f>
+        <v>55</v>
+      </c>
+      <c r="G2">
+        <f>SUM(itsemurha_abs_pct!G2,huumekuolema_abs_pct!G2,vakivalta_abs_pct!G2)</f>
+        <v>46</v>
+      </c>
+      <c r="H2">
+        <f>SUM(itsemurha_abs_pct!H2,huumekuolema_abs_pct!H2,vakivalta_abs_pct!H2)</f>
+        <v>45</v>
+      </c>
+      <c r="I2">
+        <f>SUM(itsemurha_abs_pct!I2,huumekuolema_abs_pct!I2,vakivalta_abs_pct!I2)</f>
+        <v>41</v>
+      </c>
+      <c r="J2">
+        <f>SUM(itsemurha_abs_pct!J2,huumekuolema_abs_pct!J2,vakivalta_abs_pct!J2)</f>
+        <v>55</v>
+      </c>
+      <c r="K2">
+        <f>SUM(itsemurha_abs_pct!K2,huumekuolema_abs_pct!K2,vakivalta_abs_pct!K2)</f>
+        <v>57</v>
+      </c>
+      <c r="L2">
+        <f>SUM(itsemurha_abs_pct!L2,huumekuolema_abs_pct!L2,vakivalta_abs_pct!L2)</f>
+        <v>37</v>
+      </c>
+      <c r="M2">
+        <f>SUM(itsemurha_abs_pct!M2,huumekuolema_abs_pct!M2,vakivalta_abs_pct!M2)</f>
+        <v>35</v>
+      </c>
+      <c r="N2">
+        <f>SUM(itsemurha_abs_pct!N2,huumekuolema_abs_pct!N2,vakivalta_abs_pct!N2)</f>
+        <v>23</v>
+      </c>
+      <c r="O2">
+        <f>SUM(itsemurha_abs_pct!O2,huumekuolema_abs_pct!O2,vakivalta_abs_pct!O2)</f>
+        <v>28</v>
+      </c>
+      <c r="P2">
+        <f>SUM(itsemurha_abs_pct!P2,huumekuolema_abs_pct!P2,vakivalta_abs_pct!P2)</f>
+        <v>50</v>
+      </c>
+      <c r="Q2">
+        <f>SUM(itsemurha_abs_pct!Q2,huumekuolema_abs_pct!Q2,vakivalta_abs_pct!Q2)</f>
+        <v>51</v>
+      </c>
+      <c r="R2">
+        <f>SUM(itsemurha_abs_pct!R2,huumekuolema_abs_pct!R2,vakivalta_abs_pct!R2)</f>
+        <v>52</v>
+      </c>
+      <c r="S2">
+        <f>SUM(itsemurha_abs_pct!S2,huumekuolema_abs_pct!S2,vakivalta_abs_pct!S2)</f>
+        <v>63</v>
+      </c>
+      <c r="T2">
+        <f>SUM(itsemurha_abs_pct!T2,huumekuolema_abs_pct!T2,vakivalta_abs_pct!T2)</f>
+        <v>52</v>
+      </c>
+      <c r="U2">
+        <f>SUM(itsemurha_abs_pct!U2,huumekuolema_abs_pct!U2,vakivalta_abs_pct!U2)</f>
+        <v>46</v>
+      </c>
+      <c r="V2">
+        <f>SUM(itsemurha_abs_pct!V2,huumekuolema_abs_pct!V2,vakivalta_abs_pct!V2)</f>
+        <v>74</v>
+      </c>
+      <c r="W2">
+        <f>SUM(E2:V2)</f>
+        <v>870</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3">
+        <f>SUM(itsemurha_abs_pct!E3,huumekuolema_abs_pct!E3,vakivalta_abs_pct!E3)</f>
+        <v>51</v>
+      </c>
+      <c r="F3">
+        <f>SUM(itsemurha_abs_pct!F3,huumekuolema_abs_pct!F3,vakivalta_abs_pct!F3)</f>
+        <v>43</v>
+      </c>
+      <c r="G3">
+        <f>SUM(itsemurha_abs_pct!G3,huumekuolema_abs_pct!G3,vakivalta_abs_pct!G3)</f>
+        <v>30</v>
+      </c>
+      <c r="H3">
+        <f>SUM(itsemurha_abs_pct!H3,huumekuolema_abs_pct!H3,vakivalta_abs_pct!H3)</f>
+        <v>33</v>
+      </c>
+      <c r="I3">
+        <f>SUM(itsemurha_abs_pct!I3,huumekuolema_abs_pct!I3,vakivalta_abs_pct!I3)</f>
+        <v>32</v>
+      </c>
+      <c r="J3">
+        <f>SUM(itsemurha_abs_pct!J3,huumekuolema_abs_pct!J3,vakivalta_abs_pct!J3)</f>
+        <v>43</v>
+      </c>
+      <c r="K3">
+        <f>SUM(itsemurha_abs_pct!K3,huumekuolema_abs_pct!K3,vakivalta_abs_pct!K3)</f>
+        <v>37</v>
+      </c>
+      <c r="L3">
+        <f>SUM(itsemurha_abs_pct!L3,huumekuolema_abs_pct!L3,vakivalta_abs_pct!L3)</f>
+        <v>23</v>
+      </c>
+      <c r="M3">
+        <f>SUM(itsemurha_abs_pct!M3,huumekuolema_abs_pct!M3,vakivalta_abs_pct!M3)</f>
+        <v>27</v>
+      </c>
+      <c r="N3">
+        <f>SUM(itsemurha_abs_pct!N3,huumekuolema_abs_pct!N3,vakivalta_abs_pct!N3)</f>
+        <v>17</v>
+      </c>
+      <c r="O3">
+        <f>SUM(itsemurha_abs_pct!O3,huumekuolema_abs_pct!O3,vakivalta_abs_pct!O3)</f>
+        <v>18</v>
+      </c>
+      <c r="P3">
+        <f>SUM(itsemurha_abs_pct!P3,huumekuolema_abs_pct!P3,vakivalta_abs_pct!P3)</f>
+        <v>34</v>
+      </c>
+      <c r="Q3">
+        <f>SUM(itsemurha_abs_pct!Q3,huumekuolema_abs_pct!Q3,vakivalta_abs_pct!Q3)</f>
+        <v>36</v>
+      </c>
+      <c r="R3">
+        <f>SUM(itsemurha_abs_pct!R3,huumekuolema_abs_pct!R3,vakivalta_abs_pct!R3)</f>
+        <v>35</v>
+      </c>
+      <c r="S3">
+        <f>SUM(itsemurha_abs_pct!S3,huumekuolema_abs_pct!S3,vakivalta_abs_pct!S3)</f>
+        <v>43</v>
+      </c>
+      <c r="T3">
+        <f>SUM(itsemurha_abs_pct!T3,huumekuolema_abs_pct!T3,vakivalta_abs_pct!T3)</f>
+        <v>35</v>
+      </c>
+      <c r="U3">
+        <f>SUM(itsemurha_abs_pct!U3,huumekuolema_abs_pct!U3,vakivalta_abs_pct!U3)</f>
+        <v>28</v>
+      </c>
+      <c r="V3">
+        <f>SUM(itsemurha_abs_pct!V3,huumekuolema_abs_pct!V3,vakivalta_abs_pct!V3)</f>
+        <v>43</v>
+      </c>
+      <c r="W3">
+        <f>SUM(E3:V3)</f>
+        <v>608</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4">
+        <f>E3/E2</f>
+        <v>0.85</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:V4" si="0">F3/F2</f>
+        <v>0.78181818181818186</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0.65217391304347827</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0.78181818181818186</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>0.64912280701754388</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>0.6216216216216216</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>0.77142857142857146</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>0.73913043478260865</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>0.68</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>0.67307692307692313</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>0.68253968253968256</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>0.67307692307692313</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>0.60869565217391308</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>0.58108108108108103</v>
+      </c>
+      <c r="W4">
+        <f>AVERAGE(E4:V4)</f>
+        <v>0.69574451780060964</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5">
+        <f>SUM(itsemurha_abs_pct!E5,huumekuolema_abs_pct!E5,vakivalta_abs_pct!E5)</f>
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <f>SUM(itsemurha_abs_pct!F5,huumekuolema_abs_pct!F5,vakivalta_abs_pct!F5)</f>
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <f>SUM(itsemurha_abs_pct!G5,huumekuolema_abs_pct!G5,vakivalta_abs_pct!G5)</f>
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <f>SUM(itsemurha_abs_pct!H5,huumekuolema_abs_pct!H5,vakivalta_abs_pct!H5)</f>
+        <v>12</v>
+      </c>
+      <c r="I5">
+        <f>SUM(itsemurha_abs_pct!I5,huumekuolema_abs_pct!I5,vakivalta_abs_pct!I5)</f>
+        <v>9</v>
+      </c>
+      <c r="J5">
+        <f>SUM(itsemurha_abs_pct!J5,huumekuolema_abs_pct!J5,vakivalta_abs_pct!J5)</f>
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <f>SUM(itsemurha_abs_pct!K5,huumekuolema_abs_pct!K5,vakivalta_abs_pct!K5)</f>
+        <v>20</v>
+      </c>
+      <c r="L5">
+        <f>SUM(itsemurha_abs_pct!L5,huumekuolema_abs_pct!L5,vakivalta_abs_pct!L5)</f>
+        <v>14</v>
+      </c>
+      <c r="M5">
+        <f>SUM(itsemurha_abs_pct!M5,huumekuolema_abs_pct!M5,vakivalta_abs_pct!M5)</f>
+        <v>8</v>
+      </c>
+      <c r="N5">
+        <f>SUM(itsemurha_abs_pct!N5,huumekuolema_abs_pct!N5,vakivalta_abs_pct!N5)</f>
+        <v>6</v>
+      </c>
+      <c r="O5">
+        <f>SUM(itsemurha_abs_pct!O5,huumekuolema_abs_pct!O5,vakivalta_abs_pct!O5)</f>
+        <v>10</v>
+      </c>
+      <c r="P5">
+        <f>SUM(itsemurha_abs_pct!P5,huumekuolema_abs_pct!P5,vakivalta_abs_pct!P5)</f>
+        <v>16</v>
+      </c>
+      <c r="Q5">
+        <f>SUM(itsemurha_abs_pct!Q5,huumekuolema_abs_pct!Q5,vakivalta_abs_pct!Q5)</f>
+        <v>15</v>
+      </c>
+      <c r="R5">
+        <f>SUM(itsemurha_abs_pct!R5,huumekuolema_abs_pct!R5,vakivalta_abs_pct!R5)</f>
+        <v>17</v>
+      </c>
+      <c r="S5">
+        <f>SUM(itsemurha_abs_pct!S5,huumekuolema_abs_pct!S5,vakivalta_abs_pct!S5)</f>
+        <v>20</v>
+      </c>
+      <c r="T5">
+        <f>SUM(itsemurha_abs_pct!T5,huumekuolema_abs_pct!T5,vakivalta_abs_pct!T5)</f>
+        <v>17</v>
+      </c>
+      <c r="U5">
+        <f>SUM(itsemurha_abs_pct!U5,huumekuolema_abs_pct!U5,vakivalta_abs_pct!U5)</f>
+        <v>18</v>
+      </c>
+      <c r="V5">
+        <f>SUM(itsemurha_abs_pct!V5,huumekuolema_abs_pct!V5,vakivalta_abs_pct!V5)</f>
+        <v>31</v>
+      </c>
+      <c r="W5">
+        <f>SUM(E5:V5)</f>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="1">
+        <f>E5/E2</f>
+        <v>0.15</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" ref="F6:V6" si="1">F5/F2</f>
+        <v>0.21818181818181817</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.34782608695652173</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.21818181818181817</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.35087719298245612</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.3783783783783784</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.22857142857142856</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.32692307692307693</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.31746031746031744</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.32692307692307693</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.39130434782608697</v>
+      </c>
+      <c r="V6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.41891891891891891</v>
+      </c>
+      <c r="W6">
+        <f>AVERAGE(E6:V6)</f>
+        <v>0.30425548219939041</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7">
+        <f>SUM(itsemurha_abs_pct!E7,huumekuolema_abs_pct!E7,vakivalta_abs_pct!E7)</f>
+        <v>114</v>
+      </c>
+      <c r="F7">
+        <f>SUM(itsemurha_abs_pct!F7,huumekuolema_abs_pct!F7,vakivalta_abs_pct!F7)</f>
+        <v>107</v>
+      </c>
+      <c r="G7">
+        <f>SUM(itsemurha_abs_pct!G7,huumekuolema_abs_pct!G7,vakivalta_abs_pct!G7)</f>
+        <v>111</v>
+      </c>
+      <c r="H7">
+        <f>SUM(itsemurha_abs_pct!H7,huumekuolema_abs_pct!H7,vakivalta_abs_pct!H7)</f>
+        <v>108</v>
+      </c>
+      <c r="I7">
+        <f>SUM(itsemurha_abs_pct!I7,huumekuolema_abs_pct!I7,vakivalta_abs_pct!I7)</f>
+        <v>129</v>
+      </c>
+      <c r="J7">
+        <f>SUM(itsemurha_abs_pct!J7,huumekuolema_abs_pct!J7,vakivalta_abs_pct!J7)</f>
+        <v>104</v>
+      </c>
+      <c r="K7">
+        <f>SUM(itsemurha_abs_pct!K7,huumekuolema_abs_pct!K7,vakivalta_abs_pct!K7)</f>
+        <v>100</v>
+      </c>
+      <c r="L7">
+        <f>SUM(itsemurha_abs_pct!L7,huumekuolema_abs_pct!L7,vakivalta_abs_pct!L7)</f>
+        <v>97</v>
+      </c>
+      <c r="M7">
+        <f>SUM(itsemurha_abs_pct!M7,huumekuolema_abs_pct!M7,vakivalta_abs_pct!M7)</f>
+        <v>77</v>
+      </c>
+      <c r="N7">
+        <f>SUM(itsemurha_abs_pct!N7,huumekuolema_abs_pct!N7,vakivalta_abs_pct!N7)</f>
+        <v>68</v>
+      </c>
+      <c r="O7">
+        <f>SUM(itsemurha_abs_pct!O7,huumekuolema_abs_pct!O7,vakivalta_abs_pct!O7)</f>
+        <v>103</v>
+      </c>
+      <c r="P7">
+        <f>SUM(itsemurha_abs_pct!P7,huumekuolema_abs_pct!P7,vakivalta_abs_pct!P7)</f>
+        <v>98</v>
+      </c>
+      <c r="Q7">
+        <f>SUM(itsemurha_abs_pct!Q7,huumekuolema_abs_pct!Q7,vakivalta_abs_pct!Q7)</f>
+        <v>101</v>
+      </c>
+      <c r="R7">
+        <f>SUM(itsemurha_abs_pct!R7,huumekuolema_abs_pct!R7,vakivalta_abs_pct!R7)</f>
+        <v>115</v>
+      </c>
+      <c r="S7">
+        <f>SUM(itsemurha_abs_pct!S7,huumekuolema_abs_pct!S7,vakivalta_abs_pct!S7)</f>
+        <v>101</v>
+      </c>
+      <c r="T7">
+        <f>SUM(itsemurha_abs_pct!T7,huumekuolema_abs_pct!T7,vakivalta_abs_pct!T7)</f>
+        <v>90</v>
+      </c>
+      <c r="U7">
+        <f>SUM(itsemurha_abs_pct!U7,huumekuolema_abs_pct!U7,vakivalta_abs_pct!U7)</f>
+        <v>101</v>
+      </c>
+      <c r="V7">
+        <f>SUM(itsemurha_abs_pct!V7,huumekuolema_abs_pct!V7,vakivalta_abs_pct!V7)</f>
+        <v>134</v>
+      </c>
+      <c r="W7">
+        <f>SUM(E7:V7)</f>
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8">
+        <f>SUM(itsemurha_abs_pct!E8,huumekuolema_abs_pct!E8,vakivalta_abs_pct!E8)</f>
+        <v>98</v>
+      </c>
+      <c r="F8">
+        <f>SUM(itsemurha_abs_pct!F8,huumekuolema_abs_pct!F8,vakivalta_abs_pct!F8)</f>
+        <v>78</v>
+      </c>
+      <c r="G8">
+        <f>SUM(itsemurha_abs_pct!G8,huumekuolema_abs_pct!G8,vakivalta_abs_pct!G8)</f>
+        <v>85</v>
+      </c>
+      <c r="H8">
+        <f>SUM(itsemurha_abs_pct!H8,huumekuolema_abs_pct!H8,vakivalta_abs_pct!H8)</f>
+        <v>75</v>
+      </c>
+      <c r="I8">
+        <f>SUM(itsemurha_abs_pct!I8,huumekuolema_abs_pct!I8,vakivalta_abs_pct!I8)</f>
+        <v>100</v>
+      </c>
+      <c r="J8">
+        <f>SUM(itsemurha_abs_pct!J8,huumekuolema_abs_pct!J8,vakivalta_abs_pct!J8)</f>
+        <v>78</v>
+      </c>
+      <c r="K8">
+        <f>SUM(itsemurha_abs_pct!K8,huumekuolema_abs_pct!K8,vakivalta_abs_pct!K8)</f>
+        <v>76</v>
+      </c>
+      <c r="L8">
+        <f>SUM(itsemurha_abs_pct!L8,huumekuolema_abs_pct!L8,vakivalta_abs_pct!L8)</f>
+        <v>70</v>
+      </c>
+      <c r="M8">
+        <f>SUM(itsemurha_abs_pct!M8,huumekuolema_abs_pct!M8,vakivalta_abs_pct!M8)</f>
+        <v>58</v>
+      </c>
+      <c r="N8">
+        <f>SUM(itsemurha_abs_pct!N8,huumekuolema_abs_pct!N8,vakivalta_abs_pct!N8)</f>
+        <v>58</v>
+      </c>
+      <c r="O8">
+        <f>SUM(itsemurha_abs_pct!O8,huumekuolema_abs_pct!O8,vakivalta_abs_pct!O8)</f>
+        <v>66</v>
+      </c>
+      <c r="P8">
+        <f>SUM(itsemurha_abs_pct!P8,huumekuolema_abs_pct!P8,vakivalta_abs_pct!P8)</f>
+        <v>69</v>
+      </c>
+      <c r="Q8">
+        <f>SUM(itsemurha_abs_pct!Q8,huumekuolema_abs_pct!Q8,vakivalta_abs_pct!Q8)</f>
+        <v>73</v>
+      </c>
+      <c r="R8">
+        <f>SUM(itsemurha_abs_pct!R8,huumekuolema_abs_pct!R8,vakivalta_abs_pct!R8)</f>
+        <v>82</v>
+      </c>
+      <c r="S8">
+        <f>SUM(itsemurha_abs_pct!S8,huumekuolema_abs_pct!S8,vakivalta_abs_pct!S8)</f>
+        <v>79</v>
+      </c>
+      <c r="T8">
+        <f>SUM(itsemurha_abs_pct!T8,huumekuolema_abs_pct!T8,vakivalta_abs_pct!T8)</f>
+        <v>66</v>
+      </c>
+      <c r="U8">
+        <f>SUM(itsemurha_abs_pct!U8,huumekuolema_abs_pct!U8,vakivalta_abs_pct!U8)</f>
+        <v>76</v>
+      </c>
+      <c r="V8">
+        <f>SUM(itsemurha_abs_pct!V8,huumekuolema_abs_pct!V8,vakivalta_abs_pct!V8)</f>
+        <v>100</v>
+      </c>
+      <c r="W8">
+        <f>SUM(E8:V8)</f>
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9">
+        <f>E8/E7</f>
+        <v>0.85964912280701755</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9:V9" si="2">F8/F7</f>
+        <v>0.7289719626168224</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>0.76576576576576572</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0.69444444444444442</v>
+      </c>
+      <c r="I9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>0.76</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>0.72164948453608246</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>0.75324675324675328</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>0.8529411764705882</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="2"/>
+        <v>0.64077669902912626</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="2"/>
+        <v>0.70408163265306123</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>0.72277227722772275</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="2"/>
+        <v>0.71304347826086956</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="2"/>
+        <v>0.78217821782178221</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="2"/>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="2"/>
+        <v>0.75247524752475248</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="2"/>
+        <v>0.74626865671641796</v>
+      </c>
+      <c r="W9">
+        <f>AVERAGE(E9:V9)</f>
+        <v>0.7459763677914435</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10">
+        <f>SUM(itsemurha_abs_pct!E10,huumekuolema_abs_pct!E10,vakivalta_abs_pct!E10)</f>
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <f>SUM(itsemurha_abs_pct!F10,huumekuolema_abs_pct!F10,vakivalta_abs_pct!F10)</f>
+        <v>29</v>
+      </c>
+      <c r="G10">
+        <f>SUM(itsemurha_abs_pct!G10,huumekuolema_abs_pct!G10,vakivalta_abs_pct!G10)</f>
+        <v>26</v>
+      </c>
+      <c r="H10">
+        <f>SUM(itsemurha_abs_pct!H10,huumekuolema_abs_pct!H10,vakivalta_abs_pct!H10)</f>
+        <v>33</v>
+      </c>
+      <c r="I10">
+        <f>SUM(itsemurha_abs_pct!I10,huumekuolema_abs_pct!I10,vakivalta_abs_pct!I10)</f>
+        <v>29</v>
+      </c>
+      <c r="J10">
+        <f>SUM(itsemurha_abs_pct!J10,huumekuolema_abs_pct!J10,vakivalta_abs_pct!J10)</f>
+        <v>26</v>
+      </c>
+      <c r="K10">
+        <f>SUM(itsemurha_abs_pct!K10,huumekuolema_abs_pct!K10,vakivalta_abs_pct!K10)</f>
+        <v>24</v>
+      </c>
+      <c r="L10">
+        <f>SUM(itsemurha_abs_pct!L10,huumekuolema_abs_pct!L10,vakivalta_abs_pct!L10)</f>
+        <v>27</v>
+      </c>
+      <c r="M10">
+        <f>SUM(itsemurha_abs_pct!M10,huumekuolema_abs_pct!M10,vakivalta_abs_pct!M10)</f>
+        <v>19</v>
+      </c>
+      <c r="N10">
+        <f>SUM(itsemurha_abs_pct!N10,huumekuolema_abs_pct!N10,vakivalta_abs_pct!N10)</f>
+        <v>10</v>
+      </c>
+      <c r="O10">
+        <f>SUM(itsemurha_abs_pct!O10,huumekuolema_abs_pct!O10,vakivalta_abs_pct!O10)</f>
+        <v>37</v>
+      </c>
+      <c r="P10">
+        <f>SUM(itsemurha_abs_pct!P10,huumekuolema_abs_pct!P10,vakivalta_abs_pct!P10)</f>
+        <v>29</v>
+      </c>
+      <c r="Q10">
+        <f>SUM(itsemurha_abs_pct!Q10,huumekuolema_abs_pct!Q10,vakivalta_abs_pct!Q10)</f>
+        <v>28</v>
+      </c>
+      <c r="R10">
+        <f>SUM(itsemurha_abs_pct!R10,huumekuolema_abs_pct!R10,vakivalta_abs_pct!R10)</f>
+        <v>33</v>
+      </c>
+      <c r="S10">
+        <f>SUM(itsemurha_abs_pct!S10,huumekuolema_abs_pct!S10,vakivalta_abs_pct!S10)</f>
+        <v>22</v>
+      </c>
+      <c r="T10">
+        <f>SUM(itsemurha_abs_pct!T10,huumekuolema_abs_pct!T10,vakivalta_abs_pct!T10)</f>
+        <v>24</v>
+      </c>
+      <c r="U10">
+        <f>SUM(itsemurha_abs_pct!U10,huumekuolema_abs_pct!U10,vakivalta_abs_pct!U10)</f>
+        <v>25</v>
+      </c>
+      <c r="V10">
+        <f>SUM(itsemurha_abs_pct!V10,huumekuolema_abs_pct!V10,vakivalta_abs_pct!V10)</f>
+        <v>34</v>
+      </c>
+      <c r="W10">
+        <f>SUM(E10:V10)</f>
+        <v>471</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="1">
+        <f>E10/E7</f>
+        <v>0.14035087719298245</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" ref="F11:V11" si="3">F10/F7</f>
+        <v>0.27102803738317754</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="3"/>
+        <v>0.23423423423423423</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="3"/>
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="3"/>
+        <v>0.24</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="3"/>
+        <v>0.27835051546391754</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="3"/>
+        <v>0.24675324675324675</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="3"/>
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="3"/>
+        <v>0.35922330097087379</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="3"/>
+        <v>0.29591836734693877</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" si="3"/>
+        <v>0.27722772277227725</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" si="3"/>
+        <v>0.28695652173913044</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" si="3"/>
+        <v>0.21782178217821782</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" si="3"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="U11" s="1">
+        <f t="shared" si="3"/>
+        <v>0.24752475247524752</v>
+      </c>
+      <c r="V11" s="1">
+        <f t="shared" si="3"/>
+        <v>0.2537313432835821</v>
+      </c>
+      <c r="W11">
+        <f>AVERAGE(E11:V11)</f>
+        <v>0.25402363220855645</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12">
+        <f>SUM(itsemurha_abs_pct!E12,huumekuolema_abs_pct!E12,vakivalta_abs_pct!E12)</f>
+        <v>96</v>
+      </c>
+      <c r="F12">
+        <f>SUM(itsemurha_abs_pct!F12,huumekuolema_abs_pct!F12,vakivalta_abs_pct!F12)</f>
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <f>SUM(itsemurha_abs_pct!G12,huumekuolema_abs_pct!G12,vakivalta_abs_pct!G12)</f>
+        <v>102</v>
+      </c>
+      <c r="H12">
+        <f>SUM(itsemurha_abs_pct!H12,huumekuolema_abs_pct!H12,vakivalta_abs_pct!H12)</f>
+        <v>120</v>
+      </c>
+      <c r="I12">
+        <f>SUM(itsemurha_abs_pct!I12,huumekuolema_abs_pct!I12,vakivalta_abs_pct!I12)</f>
+        <v>113</v>
+      </c>
+      <c r="J12">
+        <f>SUM(itsemurha_abs_pct!J12,huumekuolema_abs_pct!J12,vakivalta_abs_pct!J12)</f>
+        <v>118</v>
+      </c>
+      <c r="K12">
+        <f>SUM(itsemurha_abs_pct!K12,huumekuolema_abs_pct!K12,vakivalta_abs_pct!K12)</f>
+        <v>104</v>
+      </c>
+      <c r="L12">
+        <f>SUM(itsemurha_abs_pct!L12,huumekuolema_abs_pct!L12,vakivalta_abs_pct!L12)</f>
+        <v>118</v>
+      </c>
+      <c r="M12">
+        <f>SUM(itsemurha_abs_pct!M12,huumekuolema_abs_pct!M12,vakivalta_abs_pct!M12)</f>
+        <v>117</v>
+      </c>
+      <c r="N12">
+        <f>SUM(itsemurha_abs_pct!N12,huumekuolema_abs_pct!N12,vakivalta_abs_pct!N12)</f>
+        <v>93</v>
+      </c>
+      <c r="O12">
+        <f>SUM(itsemurha_abs_pct!O12,huumekuolema_abs_pct!O12,vakivalta_abs_pct!O12)</f>
+        <v>99</v>
+      </c>
+      <c r="P12">
+        <f>SUM(itsemurha_abs_pct!P12,huumekuolema_abs_pct!P12,vakivalta_abs_pct!P12)</f>
+        <v>104</v>
+      </c>
+      <c r="Q12">
+        <f>SUM(itsemurha_abs_pct!Q12,huumekuolema_abs_pct!Q12,vakivalta_abs_pct!Q12)</f>
+        <v>119</v>
+      </c>
+      <c r="R12">
+        <f>SUM(itsemurha_abs_pct!R12,huumekuolema_abs_pct!R12,vakivalta_abs_pct!R12)</f>
+        <v>109</v>
+      </c>
+      <c r="S12">
+        <f>SUM(itsemurha_abs_pct!S12,huumekuolema_abs_pct!S12,vakivalta_abs_pct!S12)</f>
+        <v>117</v>
+      </c>
+      <c r="T12">
+        <f>SUM(itsemurha_abs_pct!T12,huumekuolema_abs_pct!T12,vakivalta_abs_pct!T12)</f>
+        <v>97</v>
+      </c>
+      <c r="U12">
+        <f>SUM(itsemurha_abs_pct!U12,huumekuolema_abs_pct!U12,vakivalta_abs_pct!U12)</f>
+        <v>95</v>
+      </c>
+      <c r="V12">
+        <f>SUM(itsemurha_abs_pct!V12,huumekuolema_abs_pct!V12,vakivalta_abs_pct!V12)</f>
+        <v>102</v>
+      </c>
+      <c r="W12">
+        <f>SUM(E12:V12)</f>
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13">
+        <f>SUM(itsemurha_abs_pct!E13,huumekuolema_abs_pct!E13,vakivalta_abs_pct!E13)</f>
+        <v>72</v>
+      </c>
+      <c r="F13">
+        <f>SUM(itsemurha_abs_pct!F13,huumekuolema_abs_pct!F13,vakivalta_abs_pct!F13)</f>
+        <v>78</v>
+      </c>
+      <c r="G13">
+        <f>SUM(itsemurha_abs_pct!G13,huumekuolema_abs_pct!G13,vakivalta_abs_pct!G13)</f>
+        <v>82</v>
+      </c>
+      <c r="H13">
+        <f>SUM(itsemurha_abs_pct!H13,huumekuolema_abs_pct!H13,vakivalta_abs_pct!H13)</f>
+        <v>93</v>
+      </c>
+      <c r="I13">
+        <f>SUM(itsemurha_abs_pct!I13,huumekuolema_abs_pct!I13,vakivalta_abs_pct!I13)</f>
+        <v>85</v>
+      </c>
+      <c r="J13">
+        <f>SUM(itsemurha_abs_pct!J13,huumekuolema_abs_pct!J13,vakivalta_abs_pct!J13)</f>
+        <v>96</v>
+      </c>
+      <c r="K13">
+        <f>SUM(itsemurha_abs_pct!K13,huumekuolema_abs_pct!K13,vakivalta_abs_pct!K13)</f>
+        <v>83</v>
+      </c>
+      <c r="L13">
+        <f>SUM(itsemurha_abs_pct!L13,huumekuolema_abs_pct!L13,vakivalta_abs_pct!L13)</f>
+        <v>92</v>
+      </c>
+      <c r="M13">
+        <f>SUM(itsemurha_abs_pct!M13,huumekuolema_abs_pct!M13,vakivalta_abs_pct!M13)</f>
+        <v>95</v>
+      </c>
+      <c r="N13">
+        <f>SUM(itsemurha_abs_pct!N13,huumekuolema_abs_pct!N13,vakivalta_abs_pct!N13)</f>
+        <v>73</v>
+      </c>
+      <c r="O13">
+        <f>SUM(itsemurha_abs_pct!O13,huumekuolema_abs_pct!O13,vakivalta_abs_pct!O13)</f>
+        <v>84</v>
+      </c>
+      <c r="P13">
+        <f>SUM(itsemurha_abs_pct!P13,huumekuolema_abs_pct!P13,vakivalta_abs_pct!P13)</f>
+        <v>85</v>
+      </c>
+      <c r="Q13">
+        <f>SUM(itsemurha_abs_pct!Q13,huumekuolema_abs_pct!Q13,vakivalta_abs_pct!Q13)</f>
+        <v>90</v>
+      </c>
+      <c r="R13">
+        <f>SUM(itsemurha_abs_pct!R13,huumekuolema_abs_pct!R13,vakivalta_abs_pct!R13)</f>
+        <v>86</v>
+      </c>
+      <c r="S13">
+        <f>SUM(itsemurha_abs_pct!S13,huumekuolema_abs_pct!S13,vakivalta_abs_pct!S13)</f>
+        <v>88</v>
+      </c>
+      <c r="T13">
+        <f>SUM(itsemurha_abs_pct!T13,huumekuolema_abs_pct!T13,vakivalta_abs_pct!T13)</f>
+        <v>69</v>
+      </c>
+      <c r="U13">
+        <f>SUM(itsemurha_abs_pct!U13,huumekuolema_abs_pct!U13,vakivalta_abs_pct!U13)</f>
+        <v>73</v>
+      </c>
+      <c r="V13">
+        <f>SUM(itsemurha_abs_pct!V13,huumekuolema_abs_pct!V13,vakivalta_abs_pct!V13)</f>
+        <v>79</v>
+      </c>
+      <c r="W13">
+        <f>SUM(E13:V13)</f>
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14">
+        <f>E13/E12</f>
+        <v>0.75</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F14:V14" si="4">F13/F12</f>
+        <v>0.78</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>0.80392156862745101</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="4"/>
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>0.81355932203389836</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>0.79807692307692313</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="4"/>
+        <v>0.77966101694915257</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="4"/>
+        <v>0.81196581196581197</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="4"/>
+        <v>0.78494623655913975</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="4"/>
+        <v>0.84848484848484851</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="4"/>
+        <v>0.81730769230769229</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="4"/>
+        <v>0.75630252100840334</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="4"/>
+        <v>0.78899082568807344</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="4"/>
+        <v>0.75213675213675213</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="4"/>
+        <v>0.71134020618556704</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="4"/>
+        <v>0.76842105263157889</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="4"/>
+        <v>0.77450980392156865</v>
+      </c>
+      <c r="W14">
+        <f>AVERAGE(E14:V14)</f>
+        <v>0.7832132106809917</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15">
+        <f>SUM(itsemurha_abs_pct!E15,huumekuolema_abs_pct!E15,vakivalta_abs_pct!E15)</f>
+        <v>24</v>
+      </c>
+      <c r="F15">
+        <f>SUM(itsemurha_abs_pct!F15,huumekuolema_abs_pct!F15,vakivalta_abs_pct!F15)</f>
+        <v>22</v>
+      </c>
+      <c r="G15">
+        <f>SUM(itsemurha_abs_pct!G15,huumekuolema_abs_pct!G15,vakivalta_abs_pct!G15)</f>
+        <v>20</v>
+      </c>
+      <c r="H15">
+        <f>SUM(itsemurha_abs_pct!H15,huumekuolema_abs_pct!H15,vakivalta_abs_pct!H15)</f>
+        <v>27</v>
+      </c>
+      <c r="I15">
+        <f>SUM(itsemurha_abs_pct!I15,huumekuolema_abs_pct!I15,vakivalta_abs_pct!I15)</f>
+        <v>28</v>
+      </c>
+      <c r="J15">
+        <f>SUM(itsemurha_abs_pct!J15,huumekuolema_abs_pct!J15,vakivalta_abs_pct!J15)</f>
+        <v>22</v>
+      </c>
+      <c r="K15">
+        <f>SUM(itsemurha_abs_pct!K15,huumekuolema_abs_pct!K15,vakivalta_abs_pct!K15)</f>
+        <v>21</v>
+      </c>
+      <c r="L15">
+        <f>SUM(itsemurha_abs_pct!L15,huumekuolema_abs_pct!L15,vakivalta_abs_pct!L15)</f>
+        <v>26</v>
+      </c>
+      <c r="M15">
+        <f>SUM(itsemurha_abs_pct!M15,huumekuolema_abs_pct!M15,vakivalta_abs_pct!M15)</f>
+        <v>22</v>
+      </c>
+      <c r="N15">
+        <f>SUM(itsemurha_abs_pct!N15,huumekuolema_abs_pct!N15,vakivalta_abs_pct!N15)</f>
+        <v>20</v>
+      </c>
+      <c r="O15">
+        <f>SUM(itsemurha_abs_pct!O15,huumekuolema_abs_pct!O15,vakivalta_abs_pct!O15)</f>
+        <v>15</v>
+      </c>
+      <c r="P15">
+        <f>SUM(itsemurha_abs_pct!P15,huumekuolema_abs_pct!P15,vakivalta_abs_pct!P15)</f>
+        <v>19</v>
+      </c>
+      <c r="Q15">
+        <f>SUM(itsemurha_abs_pct!Q15,huumekuolema_abs_pct!Q15,vakivalta_abs_pct!Q15)</f>
+        <v>29</v>
+      </c>
+      <c r="R15">
+        <f>SUM(itsemurha_abs_pct!R15,huumekuolema_abs_pct!R15,vakivalta_abs_pct!R15)</f>
+        <v>23</v>
+      </c>
+      <c r="S15">
+        <f>SUM(itsemurha_abs_pct!S15,huumekuolema_abs_pct!S15,vakivalta_abs_pct!S15)</f>
+        <v>29</v>
+      </c>
+      <c r="T15">
+        <f>SUM(itsemurha_abs_pct!T15,huumekuolema_abs_pct!T15,vakivalta_abs_pct!T15)</f>
+        <v>28</v>
+      </c>
+      <c r="U15">
+        <f>SUM(itsemurha_abs_pct!U15,huumekuolema_abs_pct!U15,vakivalta_abs_pct!U15)</f>
+        <v>22</v>
+      </c>
+      <c r="V15">
+        <f>SUM(itsemurha_abs_pct!V15,huumekuolema_abs_pct!V15,vakivalta_abs_pct!V15)</f>
+        <v>23</v>
+      </c>
+      <c r="W15">
+        <f>SUM(E15:V15)</f>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="1">
+        <f>E15/E12</f>
+        <v>0.25</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" ref="F16:V16" si="5">F15/F12</f>
+        <v>0.22</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="5"/>
+        <v>0.19607843137254902</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="5"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="5"/>
+        <v>0.1864406779661017</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="5"/>
+        <v>0.20192307692307693</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="5"/>
+        <v>0.22033898305084745</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="5"/>
+        <v>0.18803418803418803</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="5"/>
+        <v>0.21505376344086022</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="5"/>
+        <v>0.15151515151515152</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="5"/>
+        <v>0.18269230769230768</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" si="5"/>
+        <v>0.24369747899159663</v>
+      </c>
+      <c r="R16" s="1">
+        <f t="shared" si="5"/>
+        <v>0.21100917431192662</v>
+      </c>
+      <c r="S16" s="1">
+        <f t="shared" si="5"/>
+        <v>0.24786324786324787</v>
+      </c>
+      <c r="T16" s="1">
+        <f t="shared" si="5"/>
+        <v>0.28865979381443296</v>
+      </c>
+      <c r="U16" s="1">
+        <f t="shared" si="5"/>
+        <v>0.23157894736842105</v>
+      </c>
+      <c r="V16" s="1">
+        <f t="shared" si="5"/>
+        <v>0.22549019607843138</v>
+      </c>
+      <c r="W16">
+        <f>AVERAGE(E16:V16)</f>
+        <v>0.21678678931900813</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>